--- a/medicine/Médecine vétérinaire/Ricinus_vaderi/Ricinus_vaderi.xlsx
+++ b/medicine/Médecine vétérinaire/Ricinus_vaderi/Ricinus_vaderi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ricinus vaderi est une espèce de poux parasites hématophages des oiseaux, de la famille des Ricinidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 2016 par Miroslav Valan. C'est un parasite de l'alouette calandre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 2016 par Miroslav Valan. C'est un parasite de l'alouette calandre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description, l'auteur indique que cette espèce mesure entre 3,73 et 3,82 mm[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, l'auteur indique que cette espèce mesure entre 3,73 et 3,82 mm. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, vaderi, lui a été donné en référence à Darth Vader, personnage de Star Wars, en raison de la forme de sa tête qui rappelle le casque du chevalier noir[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, vaderi, lui a été donné en référence à Darth Vader, personnage de Star Wars, en raison de la forme de sa tête qui rappelle le casque du chevalier noir.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en + fr) Miroslav Valan, Oldrich Sychra et Ivan Literak, « Chewing lice of genus Ricinus (Phthiraptera, Ricinidae) deposited at the Zoological Institute of the Russian Academy of Sciences, Saint Petersburg, Russia, with description of a new species », Parasite, EDP Sciences, vol. 23, no 7,‎ 2016, p. 1-10 (ISSN 1776-1042 et 1252-607X, OCLC 187451846, PMID 26902646, PMCID 4763114, DOI 10.1051/PARASITE/2016007, lire en ligne)</t>
         </is>
